--- a/Reportes/Reporteria.xlsx
+++ b/Reportes/Reporteria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\Reportes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\Analisis II\analisis-2\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E34271B-DADD-4219-9656-1F4DC9E882F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8897133E-E1C0-48B3-8BC6-7B398257F0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Mantenimiento " sheetId="5" r:id="rId1"/>
@@ -18,21 +18,22 @@
     <sheet name="Reporte Préstamo de Equipo " sheetId="2" r:id="rId3"/>
     <sheet name="Reporte Préstamo Permanente " sheetId="3" r:id="rId4"/>
     <sheet name="Reporte CIIE" sheetId="4" r:id="rId5"/>
+    <sheet name="REPORTE CEDIL" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'REPORTE CEDIL'!$A$7:$T$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Reporte CIIE'!$A$7:$W$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Mantenimiento '!$A$9:$M$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Reporte Préstamo Audiovisual '!$A$4:$T$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reporte Préstamo de Equipo '!$A$5:$O$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Reporte Préstamo Permanente '!$A$6:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reporte Préstamo de Equipo '!$A$5:$N$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Reporte Préstamo Permanente '!$A$6:$K$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'REPORTE CEDIL'!$A$4:$T$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Reporte CIIE'!$A$4:$W$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Reporte de Mantenimiento '!$A$6:$M$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Reporte Préstamo Audiovisual '!$A$1:$T$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Reporte Préstamo de Equipo '!$A$2:$O$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Reporte Préstamo Permanente '!$A$3:$M$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Reporte Préstamo de Equipo '!$A$2:$N$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Reporte Préstamo Permanente '!$A$3:$K$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,15 +43,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">NOMBRE </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>TELÉFONO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCIÓN REALIZADA </t>
   </si>
   <si>
     <t>CORREO</t>
@@ -62,9 +57,6 @@
     <t xml:space="preserve">REPORTE DE MANTENIMIENTO DE USUARIOS </t>
   </si>
   <si>
-    <t xml:space="preserve">USUARIO </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fecha: </t>
   </si>
   <si>
@@ -72,12 +64,6 @@
   </si>
   <si>
     <t>Hasta:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generado por : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora: </t>
   </si>
   <si>
     <t xml:space="preserve">SOLICITANTE </t>
@@ -107,9 +93,6 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t>Generado por:</t>
-  </si>
-  <si>
     <t>Hora:</t>
   </si>
   <si>
@@ -128,9 +111,6 @@
     <t>OTROS</t>
   </si>
   <si>
-    <t xml:space="preserve">ID </t>
-  </si>
-  <si>
     <t>REPORTE DE PRÉSTAMO DE EQUIPO</t>
   </si>
   <si>
@@ -146,16 +126,10 @@
     <t>INFORMACIÓN ADICIONAL</t>
   </si>
   <si>
-    <t>REPORTE DEL CIIE</t>
-  </si>
-  <si>
     <t>DEPARTAMENTO</t>
   </si>
   <si>
     <t>FRACCIÓN</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO ESPECIFICO</t>
   </si>
   <si>
     <t>TIPO DE CONSULTA</t>
@@ -170,14 +144,140 @@
     <t>INFORMACIÓN REQUERIDA</t>
   </si>
   <si>
-    <t>SE UTILIZARÁ PARA</t>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>Desde:</t>
+  </si>
+  <si>
+    <t>Hecho por:</t>
+  </si>
+  <si>
+    <t>Erick Barboza Díaz</t>
+  </si>
+  <si>
+    <t>ejemplo@ejemplo.com</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>Natalia Valverde Cascante</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Daniel Matamoros Quesada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freddy Arias Loria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direccion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hasta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Desde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Video Beam</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizarra Interactiva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camputadora de escritorio </t>
+  </si>
+  <si>
+    <t>Puntero</t>
+  </si>
+  <si>
+    <t>Estuche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptador Electrico </t>
+  </si>
+  <si>
+    <t>Cable de conexión a computradora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hecho por: </t>
+  </si>
+  <si>
+    <t>ESPECIFIQUE DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>LA INFORMACIÓN SERÁ UTILIZADA PARA</t>
+  </si>
+  <si>
+    <t>REPORTE DEL CENTRO DE INVESTIGACIÓN E INFOMACIÓN ESTADISTICO</t>
+  </si>
+  <si>
+    <t>PROCEDENCIA</t>
+  </si>
+  <si>
+    <t>UBICACIÓN</t>
+  </si>
+  <si>
+    <t>TIPO DE SOLICITUD</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTE DEL CENTRO DE INVESTIGACIÓN LEGISLATIVA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +298,35 @@
       <name val="Arial Nova Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Nova Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,68 +336,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -278,47 +348,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -326,6 +373,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -348,23 +437,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>45018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>160161</xdr:rowOff>
+      <xdr:rowOff>151170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1A54F8-D06E-4B06-B345-F6D08A23C9DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D71FE2-9173-484B-BB37-25721AD6EE3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -386,58 +475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="358140" y="952500"/>
-          <a:ext cx="1021080" cy="487821"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>548641</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>53410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFAE1CD-A5EC-4C77-83D0-9AB35FB98A32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9296401" y="967810"/>
-          <a:ext cx="403859" cy="441889"/>
+          <a:off x="4968240" y="959418"/>
+          <a:ext cx="632460" cy="471912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -453,23 +492,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152881</xdr:rowOff>
+      <xdr:rowOff>159492</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0D8C43-2227-4F91-97B6-47DF9B128E3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB5B5FB-6DBB-4539-A779-BC900F01DDA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -491,58 +530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="281940" y="38101"/>
-          <a:ext cx="1005840" cy="480540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>601979</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>159949</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B6264E-8293-49C9-94D5-79C4877D8484}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11315700" y="83820"/>
-          <a:ext cx="403859" cy="441889"/>
+          <a:off x="11201400" y="53340"/>
+          <a:ext cx="632460" cy="471912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,23 +547,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145260</xdr:rowOff>
+      <xdr:rowOff>108439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B78DBEC-947A-4275-BB76-E5532768B2BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B45ACCC-5E61-49FD-847E-B71D19717C1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,58 +585,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="365760" y="213360"/>
-          <a:ext cx="1005840" cy="480540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152329</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D9D93A-9E5A-451C-8E14-86EEC8B0DE49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10447021" y="259080"/>
-          <a:ext cx="388620" cy="441889"/>
+          <a:off x="10172700" y="259081"/>
+          <a:ext cx="533400" cy="397998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,23 +602,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>160500</xdr:rowOff>
+      <xdr:rowOff>144253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8846DD5-FEAE-48F6-A9F7-1BD2C8907301}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D830DB72-7F1D-490D-8127-816299479C5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,58 +640,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="160020" y="411480"/>
-          <a:ext cx="1005840" cy="480540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>182879</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>144709</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BC96DA-14B5-42AF-9289-6F165838BF81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9288780" y="434340"/>
-          <a:ext cx="403859" cy="441889"/>
+          <a:off x="7627620" y="403860"/>
+          <a:ext cx="632460" cy="471913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,23 +657,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>160500</xdr:rowOff>
+      <xdr:rowOff>136632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C424F201-02F5-4A0C-94BA-60FA35DA1734}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBB1800-9B87-4F11-8F88-FF83033E7F94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -806,8 +695,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="228600"/>
-          <a:ext cx="1005840" cy="480540"/>
+          <a:off x="16672560" y="579120"/>
+          <a:ext cx="632460" cy="471912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,25 +705,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>144709</xdr:rowOff>
+      <xdr:rowOff>144252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DBF507-1732-4636-9FCF-EAC1B486A0CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A15033-D933-46C1-A9EC-813347D8B6C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +737,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -856,8 +750,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16817340" y="617220"/>
-          <a:ext cx="403859" cy="441889"/>
+          <a:off x="14569440" y="586740"/>
+          <a:ext cx="632460" cy="471912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1132,17 +1026,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3547EB-18E7-452B-B7B7-B0BFA5F7826B}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:M35"/>
+  <dimension ref="A2:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A11" sqref="A11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -1151,479 +1043,599 @@
   <sheetData>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17">
+        <v>43998</v>
+      </c>
+      <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
+      <c r="C11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="8">
+        <v>88888888</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
+      <c r="C12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="8">
+        <v>88888888</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+      <c r="C13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="8">
+        <v>88888888</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
+      <c r="C14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="8">
+        <v>88888888</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="2"/>
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="18">
+        <v>43998</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="18">
+        <v>43998</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="H36" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:M9" xr:uid="{8F2AE804-CD11-4159-84F8-2C5ED44126C1}">
-    <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="7" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="143">
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C6:K8"/>
+  <mergeCells count="117">
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="J6:K8"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="L6:M8"/>
-    <mergeCell ref="A6:B8"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
@@ -1644,99 +1656,34 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1748,122 +1695,127 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V9:V10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" customWidth="1"/>
-    <col min="19" max="19" width="10.109375" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" customWidth="1"/>
+    <col min="1" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="10" style="2" customWidth="1"/>
+    <col min="10" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="9.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="A1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -2595,36 +2547,27 @@
       <c r="T37" s="9"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T41" s="4"/>
+      <c r="A41" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="S41" s="23" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:T4" xr:uid="{5B9EF573-26CC-4937-9EFB-7666572637FE}">
@@ -2640,99 +2583,200 @@
     <filterColumn colId="17" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
   </autoFilter>
-  <mergeCells count="311">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+  <mergeCells count="309">
+    <mergeCell ref="C1:Q3"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="R1:T3"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G5:I5"/>
@@ -2757,204 +2801,101 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="D1:Q3"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="R1:T3"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2967,7 +2908,7 @@
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2975,700 +2916,682 @@
     <col min="10" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+    <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="18"/>
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9">
+        <v>111111111</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9">
+        <v>111111111</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="A8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
+        <v>111111111</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="A9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9">
+        <v>111111111</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="4"/>
+      <c r="A34" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:O5" xr:uid="{650629DE-E708-446E-B7F1-20C1CD81F35F}">
+  <autoFilter ref="A5:N5" xr:uid="{7F673E42-454F-48F6-B2D7-0055DD4EC29F}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
-    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
   </autoFilter>
-  <mergeCells count="187">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
+  <mergeCells count="160">
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="L2:N4"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C2:K4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
@@ -3693,77 +3616,98 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D2:L4"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="M2:O4"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3776,92 +3720,93 @@
   <dimension ref="A3:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M35"/>
+      <selection activeCell="G14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="2"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="A3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -3877,8 +3822,6 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -3894,8 +3837,6 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
@@ -3911,8 +3852,6 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
@@ -3928,8 +3867,6 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -3945,8 +3882,6 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -3962,8 +3897,6 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3979,8 +3912,6 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -3996,8 +3927,6 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -4013,8 +3942,6 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -4030,10 +3957,8 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4047,10 +3972,8 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4064,10 +3987,8 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -4081,10 +4002,8 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4098,10 +4017,8 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4115,10 +4032,8 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4132,10 +4047,8 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4149,10 +4062,8 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4166,10 +4077,8 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4183,10 +4092,8 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4200,10 +4107,8 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4217,10 +4122,8 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4234,10 +4137,8 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -4251,10 +4152,8 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -4268,10 +4167,8 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -4285,41 +4182,177 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:M6" xr:uid="{36176BAB-71BF-42F7-979B-16FF241AE890}">
+  <autoFilter ref="A6:K6" xr:uid="{231FFC02-1FAB-4E6C-870F-D10D9A79E7A9}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
   </autoFilter>
-  <mergeCells count="161">
+  <mergeCells count="159">
+    <mergeCell ref="B3:I5"/>
+    <mergeCell ref="J3:K5"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
@@ -4338,152 +4371,9 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="C3:K5"/>
-    <mergeCell ref="L3:M5"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4496,132 +4386,136 @@
   <dimension ref="A4:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K7"/>
+      <selection activeCell="L29" sqref="L29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="1" max="14" width="11.5546875" style="2"/>
+    <col min="15" max="15" width="11.109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="A4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
@@ -5252,24 +5146,23 @@
       <c r="W32" s="9"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="V36" t="s">
-        <v>22</v>
+      <c r="A36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="V36" s="23" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5289,202 +5182,53 @@
     <filterColumn colId="21" showButton="0"/>
   </autoFilter>
   <mergeCells count="265">
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="U4:W6"/>
+    <mergeCell ref="D4:T6"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="U32:W32"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="R8:T8"/>
@@ -5509,54 +5253,1160 @@
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="34" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26430321-8AD5-4492-9D6A-F9733A671F72}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A4:U36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="Q36" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A7:T7" xr:uid="{725DFE9C-3214-4313-821C-892163939D17}">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="239">
+    <mergeCell ref="S4:T6"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
     <mergeCell ref="R29:T29"/>
     <mergeCell ref="R30:T30"/>
     <mergeCell ref="R31:T31"/>
     <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="R21:T21"/>
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="R25:T25"/>
     <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R15:T15"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="U4:W6"/>
-    <mergeCell ref="D4:T6"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="D4:O6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Reportes/Reporteria.xlsx
+++ b/Reportes/Reporteria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\Analisis II\analisis-2\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA163D0B-7001-4432-AF2D-FA092BF804DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19DA65-68B6-47B5-8C5E-4491C9C95DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Mantenimiento " sheetId="5" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <sheet name="Reporte CIIE" sheetId="4" r:id="rId5"/>
     <sheet name="REPORTE CEDIL" sheetId="6" r:id="rId6"/>
     <sheet name="REPORTE FLASH CIIE" sheetId="7" r:id="rId7"/>
+    <sheet name="REPORTE AUDIT PREST PERMANENT" sheetId="8" r:id="rId8"/>
+    <sheet name="REPORTE AUDIT PREST  EQUIPO" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'REPORTE AUDIT PREST  EQUIPO'!$A$7:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'REPORTE AUDIT PREST PERMANENT'!$A$7:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'REPORTE CEDIL'!$A$7:$T$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Reporte CIIE'!$A$7:$W$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Mantenimiento '!$A$9:$M$9</definedName>
@@ -29,6 +33,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Reporte Préstamo Audiovisual '!$A$4:$T$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reporte Préstamo de Equipo '!$A$5:$N$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Reporte Préstamo Permanente '!$A$6:$K$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'REPORTE AUDIT PREST  EQUIPO'!$A$4:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'REPORTE AUDIT PREST PERMANENT'!$A$4:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'REPORTE CEDIL'!$A$4:$T$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Reporte CIIE'!$A$4:$W$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'REPORTE FLASH CIIE'!$A$4:$L$36</definedName>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>TELÉFONO</t>
   </si>
@@ -289,6 +295,24 @@
   </si>
   <si>
     <t>TOTALES Y RELATIVOS</t>
+  </si>
+  <si>
+    <t>TABLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA </t>
+  </si>
+  <si>
+    <t>ACCIÓN</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>REPORTE AUDITORIA PRESTAMO DE EQUIPO</t>
+  </si>
+  <si>
+    <t>REPORTE AUDITORIA PRESTAMO PERMANENTE</t>
   </si>
 </sst>
 </file>
@@ -846,6 +870,116 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DCA7A4-34E7-41D4-BAD4-4A470CA467A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6431280" y="609600"/>
+          <a:ext cx="632460" cy="471912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B82B3B4-DFBA-4715-AC77-83929CD49AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6431280" y="609600"/>
+          <a:ext cx="632460" cy="471912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6501,8 +6635,8 @@
   </sheetPr>
   <dimension ref="A4:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7439,4 +7573,1766 @@
   <pageSetup scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56500A5-6DC0-46B2-8465-2AFE19D5A0F2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A4:U36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="L36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="186">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="S4:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092FFEC9-FF98-4788-97A7-34FDE5865C09}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A4:U36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="L36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="186">
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="S4:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>